--- a/src/test/java/com/rezoomex/xls/TestData_Solr.xlsx
+++ b/src/test/java/com/rezoomex/xls/TestData_Solr.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="31">
   <si>
     <t>Java</t>
   </si>
@@ -34,6 +34,81 @@
   </si>
   <si>
     <t>*.net,*dot net,*dotnet</t>
+  </si>
+  <si>
+    <t>Spring</t>
+  </si>
+  <si>
+    <t>tcp</t>
+  </si>
+  <si>
+    <t>soapui</t>
+  </si>
+  <si>
+    <t>architect</t>
+  </si>
+  <si>
+    <t>actionscript</t>
+  </si>
+  <si>
+    <t>ajax</t>
+  </si>
+  <si>
+    <t>ansys</t>
+  </si>
+  <si>
+    <t>ado.net</t>
+  </si>
+  <si>
+    <t>ado.net,ado dotnet,ado dot net</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>zend</t>
+  </si>
+  <si>
+    <t>zend framework</t>
+  </si>
+  <si>
+    <t>zend  framework</t>
+  </si>
+  <si>
+    <t>yii</t>
+  </si>
+  <si>
+    <t>wordpress</t>
+  </si>
+  <si>
+    <t>vmware</t>
+  </si>
+  <si>
+    <t>virtualization</t>
+  </si>
+  <si>
+    <t>vbscript</t>
+  </si>
+  <si>
+    <t>struts</t>
+  </si>
+  <si>
+    <t>c#</t>
+  </si>
+  <si>
+    <t>c sharp</t>
+  </si>
+  <si>
+    <t>c++</t>
+  </si>
+  <si>
+    <t>android</t>
+  </si>
+  <si>
+    <t>bi</t>
+  </si>
+  <si>
+    <t>asp</t>
   </si>
 </sst>
 </file>
@@ -372,10 +447,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -410,6 +485,190 @@
       </c>
       <c r="B4" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
